--- a/data/trans_bre/P08_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.312868525233226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.378385048532334</v>
+        <v>3.378385048532329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5340226136573053</v>
@@ -649,7 +649,7 @@
         <v>0.4964590886914541</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2270645337875992</v>
+        <v>0.2270645337875988</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.679564865659731</v>
+        <v>-0.01697087671727333</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.720762115615877</v>
+        <v>4.098165310278403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.883196028835478</v>
+        <v>2.258699064667244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.005112442676286</v>
+        <v>-1.778274899168544</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04716105062717187</v>
+        <v>-0.01632959604890165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2336552667600519</v>
+        <v>0.1951780542961847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07873106969777288</v>
+        <v>0.08392465980741375</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1148559977206044</v>
+        <v>-0.09652405326256767</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.1366716809599</v>
+        <v>12.88743064391465</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.44357295975647</v>
+        <v>19.32618906060068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.18605489699464</v>
+        <v>16.71218218130739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.119854986518483</v>
+        <v>7.715114064271453</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.426338610167105</v>
+        <v>1.392200593015035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.405228281079332</v>
+        <v>1.41398875005101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.034872898211294</v>
+        <v>1.091599774507542</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.681114624825902</v>
+        <v>0.6345804331310506</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.987337764423351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.319707624476221</v>
+        <v>7.319707624476216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9970820996122004</v>
@@ -749,7 +749,7 @@
         <v>0.7458361531110014</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.453642964460085</v>
+        <v>0.4536429644600846</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.301003116120016</v>
+        <v>7.302983233333348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.907885227555025</v>
+        <v>7.466688107009705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.391291769315095</v>
+        <v>4.210093027436955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.312541205981023</v>
+        <v>2.735154338781092</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5065348969111255</v>
+        <v>0.4668399508496683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3444143414350118</v>
+        <v>0.4248183861632029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3073095057980482</v>
+        <v>0.2943555303906953</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1127224510369718</v>
+        <v>0.1510991338161509</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.26282641987296</v>
+        <v>17.02620943419299</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.14549069763538</v>
+        <v>17.33567422708632</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.9035069528229</v>
+        <v>13.5843653186813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.78871699130645</v>
+        <v>11.50235866411311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.703424267245913</v>
+        <v>1.659727583342104</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.453311815792864</v>
+        <v>1.410328836742572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.430063625739675</v>
+        <v>1.368571917010383</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8756981250244791</v>
+        <v>0.8371108681699457</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.515650095719705</v>
+        <v>8.318037419402094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.239145705291525</v>
+        <v>2.35283050074256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5799718914231556</v>
+        <v>0.569426647802834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.059638207931787</v>
+        <v>2.36157217174846</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.915089327697423</v>
+        <v>0.7870296636877214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1847617329344534</v>
+        <v>0.1375410647485695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03285260176395772</v>
+        <v>0.03362060785670759</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1408123912973465</v>
+        <v>0.1556134204692508</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.34279063790715</v>
+        <v>19.46525089259949</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.64718060331501</v>
+        <v>15.55646752240148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.3750814831225</v>
+        <v>12.63325557917426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.14020882876171</v>
+        <v>10.95616771991966</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.722819058138614</v>
+        <v>3.676983900190735</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.27409756415175</v>
+        <v>1.378822128431682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.15996826090035</v>
+        <v>1.178179941765841</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.102545840127344</v>
+        <v>1.056548696424127</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.03019286881525</v>
+        <v>6.110980689521594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.544753376750515</v>
+        <v>9.913754586047819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.399924036068363</v>
+        <v>5.934066267121466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.89855740523545</v>
+        <v>-1.297212020738491</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5235311622005298</v>
+        <v>0.508287843225198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5309859072501254</v>
+        <v>0.5492789093065821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3144791365171357</v>
+        <v>0.3197996608772782</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09087788531706405</v>
+        <v>-0.05887742077331885</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.3730863346561</v>
+        <v>16.8424908281954</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.08488713245321</v>
+        <v>22.25203196899364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.47149021308229</v>
+        <v>18.88330329774884</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.574882710371028</v>
+        <v>9.751680598479128</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.330544388890899</v>
+        <v>2.28509274837437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.903925241501674</v>
+        <v>1.937158479285008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.504329698321164</v>
+        <v>1.565241935198579</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6545872025359957</v>
+        <v>0.66940952004444</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.611243739259001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11.65756634347587</v>
+        <v>11.65756634347588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.241553997320828</v>
@@ -1049,7 +1049,7 @@
         <v>0.7591137925791319</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.03436719535119</v>
+        <v>1.034367195351191</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.04042641118124</v>
+        <v>3.61496986389491</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.404885474304338</v>
+        <v>4.110337845945966</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.48325519129574</v>
+        <v>2.751903452981365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.468064091144061</v>
+        <v>6.679156976062038</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2397493048030148</v>
+        <v>0.3720230769752885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1586794178903973</v>
+        <v>0.1728346700967745</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1184809550271323</v>
+        <v>0.1398097819111891</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4427418794544677</v>
+        <v>0.4778802126095255</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.45328955455076</v>
+        <v>16.11706225119068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.69317257217547</v>
+        <v>20.47311247599209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.43628964850005</v>
+        <v>16.91333245688764</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.6802606398428</v>
+        <v>16.54566897766763</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.999906345905665</v>
+        <v>3.253850113726586</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.612258631838377</v>
+        <v>1.623836800603875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.763285209157227</v>
+        <v>1.749956443729405</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.926812633757436</v>
+        <v>1.928611197382395</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.64372219618702</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.587635496541382</v>
+        <v>6.587635496541376</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.35459988245613</v>
@@ -1149,7 +1149,7 @@
         <v>0.5210957623067707</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.6496934827734195</v>
+        <v>0.649693482773419</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.764921463590692</v>
+        <v>7.858713686796374</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.193487296255434</v>
+        <v>1.679469660829898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.13214140056466</v>
+        <v>3.138458746084623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.345576453918079</v>
+        <v>2.191037257302159</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5934637245717853</v>
+        <v>0.6132746100459198</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06234440623895315</v>
+        <v>0.05256795983629758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1371045186701536</v>
+        <v>0.1278454853194643</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1869216966859378</v>
+        <v>0.1695904517971943</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.39043890989483</v>
+        <v>20.88176557049004</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.99114707253593</v>
+        <v>16.52484519040567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.7883989074859</v>
+        <v>18.44701489277608</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.83282353883248</v>
+        <v>10.59066081283401</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.558975114809781</v>
+        <v>2.744476127313721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.093120061859438</v>
+        <v>1.111769315693757</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.116787245399029</v>
+        <v>1.063045694252464</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.279869064054131</v>
+        <v>1.27651419707304</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>7.874373562589174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.118251680095643</v>
+        <v>8.118251680095639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7374478240615991</v>
@@ -1249,7 +1249,7 @@
         <v>0.5856709015059355</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4947414110768585</v>
+        <v>0.4947414110768583</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.172260585316455</v>
+        <v>5.374627387746407</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.19571119928214</v>
+        <v>7.045908370953084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.581333339047388</v>
+        <v>3.397582612722864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.189704465250728</v>
+        <v>3.974037954095721</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3541642693713131</v>
+        <v>0.3714556519034345</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.492318259564172</v>
+        <v>0.4724084333094023</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2250593046882284</v>
+        <v>0.2177000781831735</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2243620011285351</v>
+        <v>0.2010350473997334</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.13583267676223</v>
+        <v>13.80216034589635</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.81489599070978</v>
+        <v>15.40575907715811</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.26708260864781</v>
+        <v>12.03748085767998</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.83789971306039</v>
+        <v>12.13425881871246</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.284873747391989</v>
+        <v>1.341780057595435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.509984831713647</v>
+        <v>1.479642496877571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.031626902697542</v>
+        <v>1.013326866430483</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8419154721158318</v>
+        <v>0.8626235393616334</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.6888118538370401</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.8562016949915887</v>
+        <v>0.8562016949915889</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.086158200629765</v>
+        <v>4.432050305519154</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.27852111195502</v>
+        <v>3.490971186864039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.097476918529507</v>
+        <v>4.499413652682574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.639242804875823</v>
+        <v>7.650724782645141</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2922131425246242</v>
+        <v>0.3056376149525858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.197026422671437</v>
+        <v>0.2139107403788465</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3198755100598754</v>
+        <v>0.3332724614186</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5210001026644336</v>
+        <v>0.5166602634824253</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.9480420878383</v>
+        <v>11.61075499446579</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.63417815525829</v>
+        <v>11.15746135827351</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.53122278384962</v>
+        <v>11.94186513868235</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.28340024684936</v>
+        <v>14.41229741988386</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.068457848943212</v>
+        <v>0.9981237190826792</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9602417890357389</v>
+        <v>0.8812200183247031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.157045067678959</v>
+        <v>1.220823289162828</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.283949529832691</v>
+        <v>1.320059402591654</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.454977718202354</v>
+        <v>8.699633004329074</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.778889107245542</v>
+        <v>8.771552860511871</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.981137915227718</v>
+        <v>6.875939629786076</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.064148409729053</v>
+        <v>6.120692472240576</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7140511160332894</v>
+        <v>0.7291456214269344</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5582583041342408</v>
+        <v>0.5551900338332161</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4717381290057393</v>
+        <v>0.4661929272982893</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3957626711784354</v>
+        <v>0.4010159451206592</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.99556631499822</v>
+        <v>12.00540310211555</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.55410013142366</v>
+        <v>12.68037491119217</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.71222506829525</v>
+        <v>10.51841050656646</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.229809696975993</v>
+        <v>9.466158216231509</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.162737017183593</v>
+        <v>1.159775488653381</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9057804336141309</v>
+        <v>0.9214571311293505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8330669108539976</v>
+        <v>0.8003065173793782</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6804820341796108</v>
+        <v>0.7004532451552054</v>
       </c>
     </row>
     <row r="31">
